--- a/RTL/fpga_msx2p/modules/v9958/access_timing.xlsx
+++ b/RTL/fpga_msx2p/modules/v9958/access_timing.xlsx
@@ -12,7 +12,8 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
   </bookViews>
   <sheets>
-    <sheet name="123m" sheetId="1" r:id="rId1"/>
+    <sheet name="dh_dl_clk" sheetId="2" r:id="rId1"/>
+    <sheet name="123m" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="35">
   <si>
     <t>dot_state</t>
     <phoneticPr fontId="1"/>
@@ -137,6 +138,29 @@
   </si>
   <si>
     <t>ff_ram_dat</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ff_video_dh_clk</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ff_video_dl_clk</t>
+  </si>
+  <si>
+    <t>ssg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dl_clk = 0 : CPU, 1: VDP</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -161,12 +185,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -183,7 +219,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -191,6 +227,21 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -473,106 +524,511 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H34"/>
+  <dimension ref="B1:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H28" sqref="H28"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="3.75" customWidth="1"/>
-    <col min="2" max="3" width="13" style="2" customWidth="1"/>
-    <col min="4" max="4" width="15" style="2" customWidth="1"/>
+    <col min="1" max="1" width="2.75" customWidth="1"/>
+    <col min="2" max="2" width="13.875" style="4" customWidth="1"/>
+    <col min="3" max="4" width="13.75" style="2" customWidth="1"/>
+    <col min="6" max="6" width="34" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B13" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B15" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B16" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B18" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B19" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B22" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B23" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B25" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B26" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B27" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B28" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B30" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B31" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B34" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="4" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="F35" sqref="F35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="3.75" style="5" customWidth="1"/>
+    <col min="2" max="3" width="13" style="3" customWidth="1"/>
+    <col min="4" max="4" width="15" style="3" customWidth="1"/>
     <col min="5" max="6" width="25.375" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.875" style="2" customWidth="1"/>
     <col min="8" max="8" width="20.25" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="E1" s="2" t="s">
+    <row r="1" spans="1:8" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="5"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="5"/>
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B3" s="2" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="2">
+      <c r="C3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B4" s="2" t="s">
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="2">
+      <c r="C4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B5" s="2" t="s">
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="2">
+      <c r="C5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="3">
         <v>0</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B6" s="2" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="2" t="s">
+      <c r="C6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E6" s="2" t="s">
@@ -582,108 +1038,114 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B7" s="2" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="2" t="s">
+      <c r="C7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B8" s="2" t="s">
+      <c r="G7" s="7"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="2" t="s">
+      <c r="C8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="F8" s="7"/>
+      <c r="G8" s="7" t="s">
         <v>25</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B9" s="2" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="2" t="s">
+      <c r="C9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B10" s="2" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="2" t="s">
+      <c r="C10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>8</v>
       </c>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B11" s="2" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" s="2" t="s">
+      <c r="C11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B12" s="2" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" s="2" t="s">
+      <c r="C12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B13" s="2" t="s">
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B13" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" s="2" t="s">
+      <c r="C13" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B14" s="2" t="s">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="2" t="s">
+      <c r="C14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E14" s="2" t="s">
@@ -693,31 +1155,33 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B15" s="2" t="s">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B15" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D15" s="2" t="s">
+      <c r="C15" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F15" s="7" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B16" s="2" t="s">
+      <c r="G15" s="7"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B16" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D16" s="2" t="s">
+      <c r="C16" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="F16" s="7"/>
+      <c r="G16" s="7" t="s">
         <v>26</v>
       </c>
       <c r="H16" s="2" t="s">
@@ -725,13 +1189,13 @@
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" s="2" t="s">
+      <c r="C17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E17" s="2" t="s">
@@ -742,13 +1206,13 @@
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" s="2" t="s">
+      <c r="C18" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E18" s="2" t="s">
@@ -760,31 +1224,33 @@
       <c r="H18" s="2"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D19" s="2" t="s">
+      <c r="C19" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="F19" s="7" t="s">
         <v>19</v>
       </c>
+      <c r="G19" s="7"/>
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D20" s="2" t="s">
+      <c r="C20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="F20" s="7"/>
+      <c r="G20" s="7" t="s">
         <v>27</v>
       </c>
       <c r="H20" s="2" t="s">
@@ -792,13 +1258,13 @@
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D21" s="2" t="s">
+      <c r="C21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>10</v>
       </c>
       <c r="H21" s="2" t="s">
@@ -806,142 +1272,154 @@
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22" s="2" t="s">
+      <c r="C22" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D23" s="2" t="s">
+      <c r="C23" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D24" s="2" t="s">
+      <c r="C24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D25" s="2" t="s">
+      <c r="C25" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D26" s="2" t="s">
+      <c r="C26" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D27" s="2" t="s">
+      <c r="C27" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D28" s="2" t="s">
+      <c r="C28" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D28" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D29" s="2" t="s">
+      <c r="C29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D30" s="2" t="s">
+      <c r="C30" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D31" s="2" t="s">
+      <c r="C31" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D32" s="2" t="s">
+      <c r="C32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D32" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D33" s="2" t="s">
+      <c r="C33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" s="3" t="s">
         <v>6</v>
       </c>
     </row>

--- a/RTL/fpga_msx2p/modules/v9958/access_timing.xlsx
+++ b/RTL/fpga_msx2p/modules/v9958/access_timing.xlsx
@@ -9,11 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="dh_dl_clk" sheetId="2" r:id="rId1"/>
     <sheet name="123m" sheetId="1" r:id="rId2"/>
+    <sheet name="4567" sheetId="3" r:id="rId3"/>
+    <sheet name="sprite" sheetId="4" r:id="rId4"/>
+    <sheet name="command" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="54">
   <si>
     <t>dot_state</t>
     <phoneticPr fontId="1"/>
@@ -161,6 +164,89 @@
   </si>
   <si>
     <t>dl_clk = 0 : CPU, 1: VDP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pattern_name_data</t>
+  </si>
+  <si>
+    <t>pattern_generator_data</t>
+  </si>
+  <si>
+    <t>color_data</t>
+  </si>
+  <si>
+    <t>4567</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ff_vram_address</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>w_vram_address_g45</t>
+  </si>
+  <si>
+    <t>w_vram_address_g45</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>w_vram_data</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>w_fifo_wdata</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>vram_read_data</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>下位1byte代入</t>
+    <rPh sb="0" eb="2">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ダイニュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上位1byte代入</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ダイニュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sprite</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sprite</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Y_TEST</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ff_y_test_address</t>
+  </si>
+  <si>
+    <t>p_vram_address</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PREREAD</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>command</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -219,7 +305,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -243,6 +329,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -526,7 +615,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
@@ -923,10 +1012,10 @@
   <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F35" sqref="F35"/>
+      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1064,12 +1153,7 @@
         <v>5</v>
       </c>
       <c r="F8" s="7"/>
-      <c r="G8" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="G8" s="7"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B9" s="3" t="s">
@@ -1081,8 +1165,11 @@
       <c r="D9" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="G9" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="H9" s="2" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
@@ -1095,7 +1182,9 @@
       <c r="D10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H10" s="2"/>
+      <c r="H10" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B11" s="3" t="s">
@@ -1123,6 +1212,7 @@
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
+      <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B13" s="3" t="s">
@@ -1181,12 +1271,7 @@
         <v>9</v>
       </c>
       <c r="F16" s="7"/>
-      <c r="G16" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="G16" s="7"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B17" s="3" t="s">
@@ -1201,8 +1286,11 @@
       <c r="E17" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="G17" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="H17" s="2" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.15">
@@ -1221,7 +1309,9 @@
       <c r="F18" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H18" s="2"/>
+      <c r="H18" s="2" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B19" s="3" t="s">
@@ -1250,12 +1340,8 @@
         <v>10</v>
       </c>
       <c r="F20" s="7"/>
-      <c r="G20" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="G20" s="7"/>
+      <c r="H20" s="2"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B21" s="3" t="s">
@@ -1267,8 +1353,11 @@
       <c r="D21" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="G21" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="H21" s="2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.15">
@@ -1281,6 +1370,9 @@
       <c r="D22" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="H22" s="2" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B23" s="3" t="s">
@@ -1422,6 +1514,2011 @@
       <c r="C34" s="3" t="s">
         <v>6</v>
       </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="H37" sqref="H37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="3.75" style="5" customWidth="1"/>
+    <col min="2" max="3" width="13" style="3" customWidth="1"/>
+    <col min="4" max="4" width="15" style="3" customWidth="1"/>
+    <col min="5" max="6" width="25.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="20.25" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="5"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="5"/>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0</v>
+      </c>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0</v>
+      </c>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="7"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="7"/>
+      <c r="H11" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15" s="7"/>
+      <c r="H15" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B17" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B18" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H18" s="2"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G19" s="7"/>
+      <c r="H19" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H21" s="2"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H22" s="2"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B23" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G23" s="7"/>
+      <c r="H23" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B24" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B25" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B26" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B27" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G27" s="7"/>
+      <c r="H27" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B28" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B29" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B30" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B31" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G31" s="7"/>
+      <c r="H31" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B32" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B33" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B34" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="H35" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="H36" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H67"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="4" ySplit="2" topLeftCell="E29" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="E62" sqref="E62"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="13.875" style="5" customWidth="1"/>
+    <col min="2" max="3" width="13" style="3" customWidth="1"/>
+    <col min="4" max="4" width="15" style="3" customWidth="1"/>
+    <col min="5" max="6" width="25.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="20.25" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="5"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="5"/>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A3" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0</v>
+      </c>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0</v>
+      </c>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B17" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B18" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H18" s="2"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="2"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="2"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H21" s="2"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H22" s="2"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B23" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B24" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B25" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B26" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B27" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B28" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B29" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B30" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B31" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B32" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+    </row>
+    <row r="33" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="5"/>
+      <c r="B33" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H33" s="1"/>
+    </row>
+    <row r="34" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="5"/>
+      <c r="B34" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" s="3"/>
+      <c r="H34" s="1"/>
+    </row>
+    <row r="35" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="5"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="8"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A36" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D36" s="3">
+        <v>0</v>
+      </c>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B37" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D37" s="3">
+        <v>0</v>
+      </c>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B38" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D38" s="3">
+        <v>0</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B39" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B40" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H42" s="2"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H43" s="2"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="2"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="2"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B48" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B49" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B50" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H50" s="2"/>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B51" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H51" s="2"/>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B52" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="2"/>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B53" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="2"/>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B54" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H54" s="2"/>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B55" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H55" s="2"/>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B56" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F56" s="7"/>
+      <c r="G56" s="7"/>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B57" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F57" s="7"/>
+      <c r="G57" s="7"/>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B58" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B59" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B60" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F60" s="7"/>
+      <c r="G60" s="7"/>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B61" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F61" s="7"/>
+      <c r="G61" s="7"/>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B62" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B63" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B64" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F64" s="7"/>
+      <c r="G64" s="7"/>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B65" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F65" s="7"/>
+      <c r="G65" s="7"/>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B66" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B67" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="3.75" style="5" customWidth="1"/>
+    <col min="2" max="3" width="13" style="3" customWidth="1"/>
+    <col min="4" max="4" width="15" style="3" customWidth="1"/>
+    <col min="5" max="6" width="25.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="20.25" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="5"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="5"/>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0</v>
+      </c>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0</v>
+      </c>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B17" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B18" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18" s="2"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="2"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="2"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H21" s="2"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H22" s="2"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B23" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="2"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B24" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="2"/>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B25" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B26" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B27" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="2"/>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B28" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="2"/>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B29" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B30" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B31" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="2"/>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B32" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="2"/>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B33" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B34" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="H35" s="2"/>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="H36" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
